--- a/public/thongke/ExportDSNhapChiTiet.xlsx
+++ b/public/thongke/ExportDSNhapChiTiet.xlsx
@@ -41,7 +41,7 @@
     <t>Tổng giá nhập</t>
   </si>
   <si>
-    <t>P2209-00001</t>
+    <t>P2210-00001</t>
   </si>
   <si>
     <t>Acemuc 100mg</t>
@@ -53,10 +53,10 @@
     <t>300.000 VND</t>
   </si>
   <si>
+    <t>600.000 VND</t>
+  </si>
+  <si>
     <t>Acemuc 200mg</t>
-  </si>
-  <si>
-    <t>Amlordipin 5mg</t>
   </si>
 </sst>
 </file>
@@ -401,7 +401,7 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="17" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="6" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="15" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="10" bestFit="true" customWidth="true" style="0"/>
@@ -457,7 +457,7 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>1234</v>
       </c>
       <c r="D2"/>
       <c r="E2">
@@ -476,21 +476,21 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="D3"/>
       <c r="E3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F3"/>
       <c r="G3" t="s">
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -501,7 +501,7 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>222</v>
       </c>
       <c r="D4"/>
       <c r="E4">
